--- a/data/trans_orig/FINALB_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FINALB_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59F7AE8E-9239-43E1-BAFB-63A442BB90CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D05E732C-CF1D-4407-B94B-68B9A6197153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56A2BA12-D70B-4A88-BFA7-F5C4B1B0E193}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54E368DE-12AC-4FBE-8C9D-381B313F0676}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="146">
   <si>
     <t>Población según la coperación aportada al realizar la entrevista en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -86,400 +86,391 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,08%</t>
+    <t>1,13%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,26%</t>
+    <t>0,25%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>0,21%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
   </si>
   <si>
     <t>14,69%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
   </si>
   <si>
     <t>15,33%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
   </si>
   <si>
     <t>83,82%</t>
   </si>
   <si>
-    <t>82,32%</t>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
   </si>
   <si>
     <t>82,87%</t>
   </si>
   <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>83,32%</t>
   </si>
   <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -894,7 +885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FB95CA-3ADE-4F9F-B4A9-45DD1D259AA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE2B515-1B9C-4431-B4E1-03259DB2EE83}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1311,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1326,13 +1317,13 @@
         <v>26413</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -1341,13 +1332,13 @@
         <v>29410</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -1356,13 +1347,13 @@
         <v>55823</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1377,13 +1368,13 @@
         <v>322391</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>553</v>
@@ -1392,13 +1383,13 @@
         <v>346125</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>882</v>
@@ -1407,13 +1398,13 @@
         <v>668516</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1428,28 +1419,28 @@
         <v>1810081</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>2329</v>
       </c>
       <c r="I12" s="7">
-        <v>1873985</v>
+        <v>1873986</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>3963</v>
@@ -1458,13 +1449,13 @@
         <v>3684067</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1491,7 +1482,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1520,7 +1511,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1532,13 +1523,13 @@
         <v>1376</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1553,7 +1544,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1562,13 +1553,13 @@
         <v>1376</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1583,13 +1574,13 @@
         <v>7315</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -1598,13 +1589,13 @@
         <v>13103</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M15" s="7">
         <v>25</v>
@@ -1613,13 +1604,13 @@
         <v>20418</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1634,13 +1625,13 @@
         <v>105520</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>182</v>
@@ -1649,13 +1640,13 @@
         <v>108797</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>308</v>
@@ -1664,13 +1655,13 @@
         <v>214317</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,13 +1676,13 @@
         <v>558828</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>805</v>
@@ -1700,13 +1691,13 @@
         <v>591986</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>1351</v>
@@ -1715,13 +1706,13 @@
         <v>1150815</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,13 +1780,13 @@
         <v>3318</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -1804,13 +1795,13 @@
         <v>4686</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -1819,13 +1810,13 @@
         <v>8004</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1840,13 +1831,13 @@
         <v>46947</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>88</v>
@@ -1855,13 +1846,13 @@
         <v>63555</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>139</v>
@@ -1870,13 +1861,13 @@
         <v>110502</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,13 +1882,13 @@
         <v>495786</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H21" s="7">
         <v>952</v>
@@ -1906,13 +1897,13 @@
         <v>582409</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M21" s="7">
         <v>1483</v>
@@ -1921,13 +1912,13 @@
         <v>1078195</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,13 +1933,13 @@
         <v>2829449</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>4305</v>
@@ -1957,13 +1948,13 @@
         <v>3148709</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>7084</v>
@@ -1972,13 +1963,13 @@
         <v>5978158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,7 +2025,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/FINALB_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FINALB_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D05E732C-CF1D-4407-B94B-68B9A6197153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CDFEC0F-0714-4A1F-AE55-501CB371FD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54E368DE-12AC-4FBE-8C9D-381B313F0676}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD0F61FB-BC8A-4B5D-8370-0B4EEF37DD32}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -885,7 +885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE2B515-1B9C-4431-B4E1-03259DB2EE83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74B8EB7-D349-4588-8C52-B558EE4877B5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
